--- a/SrProject/score.xlsx
+++ b/SrProject/score.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t xml:space="preserve">Standing </t>
   </si>
@@ -69,6 +69,54 @@
   </si>
   <si>
     <t>% false alarm rate</t>
+  </si>
+  <si>
+    <t>Standing/Waving</t>
+  </si>
+  <si>
+    <t>Standing/Walking</t>
+  </si>
+  <si>
+    <t>Walking/Waving</t>
+  </si>
+  <si>
+    <t>Report record (~30 second chunks)</t>
+  </si>
+  <si>
+    <t>36 frames</t>
+  </si>
+  <si>
+    <t>Standing /Abnormal</t>
+  </si>
+  <si>
+    <t>Walking/Abnormal</t>
+  </si>
+  <si>
+    <t>Waving/Abnormal</t>
+  </si>
+  <si>
+    <t>41 frames</t>
+  </si>
+  <si>
+    <t>0 abnormal</t>
+  </si>
+  <si>
+    <t>25 abnormal</t>
+  </si>
+  <si>
+    <t>33 frames</t>
+  </si>
+  <si>
+    <t>34 frames</t>
+  </si>
+  <si>
+    <t>63 frames</t>
+  </si>
+  <si>
+    <t>16 abnormal</t>
+  </si>
+  <si>
+    <t>13 abnormal</t>
   </si>
 </sst>
 </file>
@@ -387,20 +435,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G134"/>
+  <dimension ref="C3:AF134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Y67" sqref="Y67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -410,8 +464,35 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>0</v>
       </c>
@@ -421,8 +502,35 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>0</v>
       </c>
@@ -432,8 +540,35 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>0</v>
       </c>
@@ -443,8 +578,35 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>0</v>
       </c>
@@ -454,8 +616,35 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>0</v>
       </c>
@@ -468,8 +657,35 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>0</v>
       </c>
@@ -479,8 +695,35 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>0</v>
       </c>
@@ -490,8 +733,35 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>0</v>
       </c>
@@ -501,8 +771,35 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>0</v>
       </c>
@@ -512,8 +809,35 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>0</v>
       </c>
@@ -523,8 +847,35 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>0</v>
       </c>
@@ -534,8 +885,35 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>0</v>
       </c>
@@ -545,8 +923,35 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>0</v>
       </c>
@@ -556,8 +961,35 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>0</v>
       </c>
@@ -567,8 +999,35 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>0</v>
       </c>
@@ -578,8 +1037,35 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>0</v>
       </c>
@@ -589,8 +1075,35 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>0</v>
       </c>
@@ -600,8 +1113,35 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>0</v>
       </c>
@@ -611,8 +1151,35 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>0</v>
       </c>
@@ -622,8 +1189,35 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>0</v>
       </c>
@@ -633,8 +1227,35 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>0</v>
       </c>
@@ -644,8 +1265,35 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>0</v>
       </c>
@@ -655,8 +1303,35 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>0</v>
       </c>
@@ -666,8 +1341,35 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>0</v>
       </c>
@@ -677,8 +1379,35 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>0</v>
       </c>
@@ -688,8 +1417,35 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>0</v>
       </c>
@@ -699,8 +1455,35 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>0</v>
       </c>
@@ -710,8 +1493,35 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>0</v>
       </c>
@@ -721,8 +1531,35 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>0</v>
       </c>
@@ -732,8 +1569,35 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>0</v>
       </c>
@@ -743,8 +1607,35 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>0</v>
       </c>
@@ -754,8 +1645,35 @@
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>0</v>
       </c>
@@ -765,8 +1683,35 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>0</v>
       </c>
@@ -776,8 +1721,35 @@
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>0</v>
       </c>
@@ -787,8 +1759,32 @@
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>0</v>
       </c>
@@ -798,8 +1794,29 @@
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>0</v>
       </c>
@@ -809,8 +1826,23 @@
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>0</v>
       </c>
@@ -820,8 +1852,20 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>0</v>
       </c>
@@ -831,8 +1875,17 @@
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>0</v>
       </c>
@@ -842,8 +1895,17 @@
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>0</v>
       </c>
@@ -853,8 +1915,17 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>0</v>
       </c>
@@ -864,8 +1935,17 @@
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>0</v>
       </c>
@@ -875,8 +1955,14 @@
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>0</v>
       </c>
@@ -886,8 +1972,14 @@
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>0</v>
       </c>
@@ -897,8 +1989,14 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>0</v>
       </c>
@@ -908,8 +2006,14 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>0</v>
       </c>
@@ -919,8 +2023,14 @@
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>0</v>
       </c>
@@ -930,8 +2040,14 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>0</v>
       </c>
@@ -941,8 +2057,14 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>0</v>
       </c>
@@ -952,8 +2074,14 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>0</v>
       </c>
@@ -963,8 +2091,14 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>0</v>
       </c>
@@ -974,8 +2108,14 @@
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>0</v>
       </c>
@@ -985,8 +2125,14 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>0</v>
       </c>
@@ -996,8 +2142,14 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>0</v>
       </c>
@@ -1007,8 +2159,26 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L59" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" t="s">
+        <v>19</v>
+      </c>
+      <c r="P59" t="s">
+        <v>26</v>
+      </c>
+      <c r="R59" t="s">
+        <v>27</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>0</v>
       </c>
@@ -1018,8 +2188,26 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L60" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" t="s">
+        <v>25</v>
+      </c>
+      <c r="P60" t="s">
+        <v>24</v>
+      </c>
+      <c r="R60" t="s">
+        <v>24</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>0</v>
       </c>
@@ -1029,8 +2217,24 @@
       <c r="G61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f>(25/36)*100</f>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>0</v>
       </c>
@@ -1040,8 +2244,14 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>0</v>
       </c>
@@ -1051,8 +2261,14 @@
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>0</v>
       </c>
@@ -1062,8 +2278,14 @@
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>0</v>
       </c>
@@ -1073,8 +2295,14 @@
       <c r="G65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>0</v>
       </c>
@@ -1084,8 +2312,14 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>0</v>
       </c>
@@ -1095,8 +2329,14 @@
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>0</v>
       </c>
@@ -1106,8 +2346,14 @@
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>0</v>
       </c>
@@ -1118,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>0</v>
       </c>
@@ -1128,8 +2374,14 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C71">
         <v>0</v>
       </c>
@@ -1139,8 +2391,14 @@
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="T71" t="s">
+        <v>29</v>
+      </c>
+      <c r="V71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C72">
         <v>1</v>
       </c>
@@ -1154,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>1</v>
       </c>
@@ -1165,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>1</v>
       </c>
@@ -1176,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C75">
         <v>1</v>
       </c>
@@ -1187,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C76">
         <v>0</v>
       </c>
@@ -1198,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C77">
         <v>0</v>
       </c>
@@ -1209,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C78">
         <v>0</v>
       </c>
@@ -1220,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C79">
         <v>0</v>
       </c>
@@ -1231,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C80">
         <v>0</v>
       </c>

--- a/SrProject/score.xlsx
+++ b/SrProject/score.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aweber13\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keely/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BC76BF-6BC9-2046-BB4F-D3A9573A90F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9768" windowHeight="17904"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27220" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t xml:space="preserve">Standing </t>
   </si>
@@ -42,24 +43,6 @@
   </si>
   <si>
     <t>Waving</t>
-  </si>
-  <si>
-    <t>119 frames</t>
-  </si>
-  <si>
-    <t>4 abnormals</t>
-  </si>
-  <si>
-    <t>87 frames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 abnormals </t>
-  </si>
-  <si>
-    <t>108 frames</t>
-  </si>
-  <si>
-    <t>0 abnormals</t>
   </si>
   <si>
     <t>frames</t>
@@ -83,9 +66,6 @@
     <t>Report record (~30 second chunks)</t>
   </si>
   <si>
-    <t>36 frames</t>
-  </si>
-  <si>
     <t>Standing /Abnormal</t>
   </si>
   <si>
@@ -93,21 +73,6 @@
   </si>
   <si>
     <t>Waving/Abnormal</t>
-  </si>
-  <si>
-    <t>41 frames</t>
-  </si>
-  <si>
-    <t>0 abnormal</t>
-  </si>
-  <si>
-    <t>25 abnormal</t>
-  </si>
-  <si>
-    <t>33 frames</t>
-  </si>
-  <si>
-    <t>34 frames</t>
   </si>
   <si>
     <t>63 frames</t>
@@ -118,13 +83,54 @@
   <si>
     <t>13 abnormal</t>
   </si>
+  <si>
+    <t>abnormal</t>
+  </si>
+  <si>
+    <t>%false alarm rate</t>
+  </si>
+  <si>
+    <t>Single Person</t>
+  </si>
+  <si>
+    <t>Two People</t>
+  </si>
+  <si>
+    <t>Abnormal</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Single Person totals</t>
+  </si>
+  <si>
+    <t>False Alarm Total</t>
+  </si>
+  <si>
+    <t>Multiple people totals</t>
+  </si>
+  <si>
+    <t>multiple people totals</t>
+  </si>
+  <si>
+    <t>anomaly rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -154,7 +160,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,27 +440,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:AF134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:AG136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Y67" sqref="Y67"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="3:32" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -474,25 +500,25 @@
         <v>5</v>
       </c>
       <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF5" t="s">
         <v>15</v>
       </c>
-      <c r="T5" t="s">
-        <v>16</v>
-      </c>
-      <c r="V5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="3:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>0</v>
       </c>
@@ -530,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>0</v>
       </c>
@@ -568,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>0</v>
       </c>
@@ -606,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>0</v>
       </c>
@@ -644,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>0</v>
       </c>
@@ -685,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>0</v>
       </c>
@@ -723,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>0</v>
       </c>
@@ -761,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>0</v>
       </c>
@@ -799,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>0</v>
       </c>
@@ -837,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>0</v>
       </c>
@@ -875,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>0</v>
       </c>
@@ -913,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>0</v>
       </c>
@@ -951,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>0</v>
       </c>
@@ -989,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>0</v>
       </c>
@@ -1027,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>0</v>
       </c>
@@ -1065,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>0</v>
       </c>
@@ -1103,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>0</v>
       </c>
@@ -1141,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>0</v>
       </c>
@@ -1179,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>0</v>
       </c>
@@ -1217,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>0</v>
       </c>
@@ -1255,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>0</v>
       </c>
@@ -1293,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>0</v>
       </c>
@@ -1331,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>0</v>
       </c>
@@ -1369,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>0</v>
       </c>
@@ -1407,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>0</v>
       </c>
@@ -1445,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>0</v>
       </c>
@@ -1483,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>0</v>
       </c>
@@ -1521,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>0</v>
       </c>
@@ -1559,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>0</v>
       </c>
@@ -1597,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>0</v>
       </c>
@@ -1635,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>0</v>
       </c>
@@ -1673,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>0</v>
       </c>
@@ -1711,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>0</v>
       </c>
@@ -1749,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>0</v>
       </c>
@@ -1784,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>0</v>
       </c>
@@ -1816,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>0</v>
       </c>
@@ -1842,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>0</v>
       </c>
@@ -1861,11 +1887,23 @@
       <c r="V42">
         <v>0</v>
       </c>
+      <c r="AB42">
+        <v>35</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>6</v>
+      </c>
       <c r="AD42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="AF42">
+        <v>35</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>0</v>
       </c>
@@ -1884,8 +1922,22 @@
       <c r="V43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="AB43">
+        <f>SUM(AB6:AB40)</f>
+        <v>19</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF43">
+        <f>SUM(AF6:AF40)</f>
+        <v>15</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>0</v>
       </c>
@@ -1904,8 +1956,14 @@
       <c r="V44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="AD44">
+        <v>37</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>0</v>
       </c>
@@ -1924,8 +1982,15 @@
       <c r="V45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="AD45">
+        <f>SUM(AD6:AD42)</f>
+        <v>25</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>0</v>
       </c>
@@ -1945,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>0</v>
       </c>
@@ -1962,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>0</v>
       </c>
@@ -1979,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>0</v>
       </c>
@@ -1996,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>0</v>
       </c>
@@ -2012,8 +2077,11 @@
       <c r="V50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="AC50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>0</v>
       </c>
@@ -2029,8 +2097,15 @@
       <c r="V51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="AC51">
+        <f>AB42+AD44+AF42</f>
+        <v>107</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>0</v>
       </c>
@@ -2046,8 +2121,15 @@
       <c r="V52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="AC52">
+        <f>AB43+AD45+AF43</f>
+        <v>59</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>0</v>
       </c>
@@ -2063,8 +2145,15 @@
       <c r="V53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="AC53">
+        <f>(AC52/AC51)*100</f>
+        <v>55.140186915887845</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>0</v>
       </c>
@@ -2081,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>0</v>
       </c>
@@ -2098,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>0</v>
       </c>
@@ -2115,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>0</v>
       </c>
@@ -2132,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>0</v>
       </c>
@@ -2149,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>0</v>
       </c>
@@ -2159,765 +2248,854 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="L59" t="s">
-        <v>23</v>
-      </c>
-      <c r="N59" t="s">
+      <c r="L59">
+        <v>41</v>
+      </c>
+      <c r="M59" t="s">
+        <v>6</v>
+      </c>
+      <c r="N59">
+        <v>36</v>
+      </c>
+      <c r="P59">
+        <v>33</v>
+      </c>
+      <c r="R59">
+        <v>34</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>7</v>
+      </c>
+      <c r="N60">
+        <v>25</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f>(L60/L59)*100</f>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f>(N60/N59)*100</f>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="P61">
+        <f>(P60/P59)*100</f>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f>(R60/R59)*100</f>
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="T70" t="s">
+        <v>16</v>
+      </c>
+      <c r="V70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="T71" t="s">
+        <v>17</v>
+      </c>
+      <c r="V71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f>41 + 36 + 33 + 34 + 63 + 63</f>
+        <v>270</v>
+      </c>
+      <c r="M74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f>0 + 25 + 0+0+16+13</f>
+        <v>54</v>
+      </c>
+      <c r="M75" t="s">
         <v>19</v>
       </c>
-      <c r="P59" t="s">
-        <v>26</v>
-      </c>
-      <c r="R59" t="s">
-        <v>27</v>
-      </c>
-      <c r="T59">
-        <v>1</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="L60" t="s">
-        <v>24</v>
-      </c>
-      <c r="N60" t="s">
+    </row>
+    <row r="76" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f>(L75/L74)*100</f>
+        <v>20</v>
+      </c>
+      <c r="M76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <v>119</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>87</v>
+      </c>
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126">
+        <v>108</v>
+      </c>
+      <c r="H126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <f>(C127/C126)*100</f>
+        <v>3.3613445378151261</v>
+      </c>
+      <c r="E128">
+        <f>(E127/E126)*100</f>
+        <v>14.942528735632186</v>
+      </c>
+      <c r="G128">
+        <f>(G127/G126)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
         <v>25</v>
       </c>
-      <c r="P60" t="s">
-        <v>24</v>
-      </c>
-      <c r="R60" t="s">
-        <v>24</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <f>(25/36)*100</f>
-        <v>69.444444444444443</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>1</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>1</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <v>1</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="T70" t="s">
-        <v>28</v>
-      </c>
-      <c r="V70" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="T71" t="s">
-        <v>29</v>
-      </c>
-      <c r="V71" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C126" t="s">
-        <v>6</v>
-      </c>
-      <c r="E126" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C127" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C128">
-        <f>(4/119)*100</f>
-        <v>3.3613445378151261</v>
-      </c>
-      <c r="E128">
-        <f>(13/87)*100</f>
-        <v>14.942528735632186</v>
-      </c>
-      <c r="G128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C132">
         <f>(119+87+108)</f>
         <v>314</v>
       </c>
       <c r="D132" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C133">
         <f>(4+13+0)</f>
         <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C134">
         <f>(C133/C132)*100</f>
         <v>5.4140127388535033</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="M134">
+        <f>C132+L74</f>
+        <v>584</v>
+      </c>
+      <c r="N134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M135">
+        <f>C133+L75</f>
+        <v>71</v>
+      </c>
+      <c r="N135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M136">
+        <f>(M135/M134)*100</f>
+        <v>12.157534246575343</v>
+      </c>
+      <c r="N136" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/SrProject/score.xlsx
+++ b/SrProject/score.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keely/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aweber13\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BC76BF-6BC9-2046-BB4F-D3A9573A90F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27220" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20580" windowHeight="10548"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t xml:space="preserve">Standing </t>
   </si>
@@ -116,11 +115,29 @@
   <si>
     <t>anomaly rate</t>
   </si>
+  <si>
+    <t>Falling</t>
+  </si>
+  <si>
+    <t>Jumping</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>One Person Abnormal</t>
+  </si>
+  <si>
+    <t>Anomaly Detection Total</t>
+  </si>
+  <si>
+    <t>%anomaly detection rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,16 +457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AG136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AO136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView tabSelected="1" topLeftCell="F49" workbookViewId="0">
+      <selection activeCell="AF87" sqref="AF87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
@@ -468,8 +485,11 @@
       <c r="AC2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -479,8 +499,11 @@
       <c r="AB3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -517,8 +540,17 @@
       <c r="AF5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>0</v>
       </c>
@@ -555,8 +587,17 @@
       <c r="AF6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>0</v>
       </c>
@@ -593,8 +634,17 @@
       <c r="AF7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>0</v>
       </c>
@@ -631,8 +681,17 @@
       <c r="AF8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>0</v>
       </c>
@@ -669,8 +728,17 @@
       <c r="AF9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>0</v>
       </c>
@@ -710,8 +778,17 @@
       <c r="AF10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>0</v>
       </c>
@@ -748,8 +825,17 @@
       <c r="AF11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>0</v>
       </c>
@@ -786,8 +872,17 @@
       <c r="AF12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>0</v>
       </c>
@@ -824,8 +919,17 @@
       <c r="AF13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>0</v>
       </c>
@@ -862,8 +966,17 @@
       <c r="AF14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>0</v>
       </c>
@@ -900,8 +1013,17 @@
       <c r="AF15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>0</v>
       </c>
@@ -938,8 +1060,17 @@
       <c r="AF16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>0</v>
       </c>
@@ -976,8 +1107,17 @@
       <c r="AF17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>0</v>
       </c>
@@ -1014,8 +1154,17 @@
       <c r="AF18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>0</v>
       </c>
@@ -1052,8 +1201,17 @@
       <c r="AF19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>0</v>
       </c>
@@ -1090,8 +1248,17 @@
       <c r="AF20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>0</v>
       </c>
@@ -1128,8 +1295,17 @@
       <c r="AF21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>0</v>
       </c>
@@ -1166,8 +1342,17 @@
       <c r="AF22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>0</v>
       </c>
@@ -1204,8 +1389,17 @@
       <c r="AF23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>0</v>
       </c>
@@ -1242,8 +1436,17 @@
       <c r="AF24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>0</v>
       </c>
@@ -1280,8 +1483,17 @@
       <c r="AF25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>0</v>
       </c>
@@ -1318,8 +1530,17 @@
       <c r="AF26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>0</v>
       </c>
@@ -1356,8 +1577,17 @@
       <c r="AF27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>0</v>
       </c>
@@ -1394,8 +1624,17 @@
       <c r="AF28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>0</v>
       </c>
@@ -1432,8 +1671,17 @@
       <c r="AF29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>0</v>
       </c>
@@ -1470,8 +1718,17 @@
       <c r="AF30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>0</v>
       </c>
@@ -1508,8 +1765,17 @@
       <c r="AF31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>0</v>
       </c>
@@ -1546,8 +1812,17 @@
       <c r="AF32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>0</v>
       </c>
@@ -1584,8 +1859,17 @@
       <c r="AF33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>0</v>
       </c>
@@ -1622,8 +1906,17 @@
       <c r="AF34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>0</v>
       </c>
@@ -1660,8 +1953,17 @@
       <c r="AF35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>0</v>
       </c>
@@ -1698,8 +2000,17 @@
       <c r="AF36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>0</v>
       </c>
@@ -1736,8 +2047,17 @@
       <c r="AF37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>0</v>
       </c>
@@ -1774,8 +2094,17 @@
       <c r="AF38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>0</v>
       </c>
@@ -1809,8 +2138,17 @@
       <c r="AF39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>0</v>
       </c>
@@ -1841,8 +2179,17 @@
       <c r="AF40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>0</v>
       </c>
@@ -1867,8 +2214,17 @@
       <c r="AD41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>0</v>
       </c>
@@ -1902,8 +2258,17 @@
       <c r="AG42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>0</v>
       </c>
@@ -1936,8 +2301,17 @@
       <c r="AG43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>0</v>
       </c>
@@ -1962,8 +2336,17 @@
       <c r="AE44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>0</v>
       </c>
@@ -1989,8 +2372,17 @@
       <c r="AE45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>0</v>
       </c>
@@ -2009,8 +2401,17 @@
       <c r="V46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>0</v>
       </c>
@@ -2026,8 +2427,17 @@
       <c r="V47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AJ47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>0</v>
       </c>
@@ -2043,8 +2453,17 @@
       <c r="V48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>0</v>
       </c>
@@ -2060,8 +2479,17 @@
       <c r="V49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>0</v>
       </c>
@@ -2080,8 +2508,17 @@
       <c r="AC50" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>0</v>
       </c>
@@ -2104,8 +2541,17 @@
       <c r="AD51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>0</v>
       </c>
@@ -2128,8 +2574,17 @@
       <c r="AD52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>0</v>
       </c>
@@ -2152,8 +2607,17 @@
       <c r="AD53" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>0</v>
       </c>
@@ -2169,8 +2633,17 @@
       <c r="V54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>0</v>
       </c>
@@ -2186,8 +2659,14 @@
       <c r="V55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>0</v>
       </c>
@@ -2203,8 +2682,14 @@
       <c r="V56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>0</v>
       </c>
@@ -2220,8 +2705,14 @@
       <c r="V57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>0</v>
       </c>
@@ -2237,8 +2728,14 @@
       <c r="V58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>0</v>
       </c>
@@ -2269,8 +2766,14 @@
       <c r="V59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>0</v>
       </c>
@@ -2301,8 +2804,11 @@
       <c r="V60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AN60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>0</v>
       </c>
@@ -2334,8 +2840,11 @@
       <c r="V61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AN61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>0</v>
       </c>
@@ -2351,8 +2860,23 @@
       <c r="V62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ62">
+        <v>54</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL62">
+        <v>49</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>0</v>
       </c>
@@ -2368,8 +2892,21 @@
       <c r="V63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AJ63">
+        <f>SUM(AJ6:AJ59)</f>
+        <v>33</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL63">
+        <v>35</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>0</v>
       </c>
@@ -2385,8 +2922,22 @@
       <c r="V64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="AJ64">
+        <f>AJ63/AJ62</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="AL64">
+        <f>AL63/AL62</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AN64">
+        <v>57</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>0</v>
       </c>
@@ -2402,8 +2953,14 @@
       <c r="V65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="AN65">
+        <v>41</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>0</v>
       </c>
@@ -2419,8 +2976,12 @@
       <c r="V66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="AN66">
+        <f>AN65/AN64</f>
+        <v>0.7192982456140351</v>
+      </c>
+    </row>
+    <row r="67" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>0</v>
       </c>
@@ -2437,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>0</v>
       </c>
@@ -2454,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>0</v>
       </c>
@@ -2465,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>0</v>
       </c>
@@ -2482,7 +3043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C71">
         <v>0</v>
       </c>
@@ -2499,7 +3060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C72">
         <v>1</v>
       </c>
@@ -2513,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>1</v>
       </c>
@@ -2527,7 +3088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>1</v>
       </c>
@@ -2544,8 +3105,11 @@
       <c r="M74" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="AF74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C75">
         <v>1</v>
       </c>
@@ -2562,8 +3126,15 @@
       <c r="M75" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="AF75">
+        <f>AB42+AD44+AF42+AJ62+AL62+AN64</f>
+        <v>267</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C76">
         <v>0</v>
       </c>
@@ -2580,8 +3151,15 @@
       <c r="M76" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="AF76">
+        <f>AB43+AD45+AF43+AJ63+AL63+AN65</f>
+        <v>168</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C77">
         <v>0</v>
       </c>
@@ -2591,8 +3169,15 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="AF77">
+        <f>(AF76/AF75)*100</f>
+        <v>62.921348314606739</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C78">
         <v>0</v>
       </c>
@@ -2603,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C79">
         <v>0</v>
       </c>
@@ -2614,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C80">
         <v>0</v>
       </c>
@@ -2625,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81">
         <v>0</v>
       </c>
@@ -2636,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82">
         <v>0</v>
       </c>
@@ -2647,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83">
         <v>0</v>
       </c>
@@ -2658,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84">
         <v>0</v>
       </c>
@@ -2669,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85">
         <v>0</v>
       </c>
@@ -2680,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86">
         <v>0</v>
       </c>
@@ -2691,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C87">
         <v>0</v>
       </c>
@@ -2702,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C88">
         <v>0</v>
       </c>
@@ -2713,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89">
         <v>0</v>
       </c>
@@ -2724,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90">
         <v>0</v>
       </c>
@@ -2735,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91">
         <v>0</v>
       </c>
@@ -2746,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92">
         <v>0</v>
       </c>
@@ -2757,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C93">
         <v>0</v>
       </c>
@@ -2765,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94">
         <v>0</v>
       </c>
@@ -2773,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95">
         <v>0</v>
       </c>
@@ -2781,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96">
         <v>0</v>
       </c>
@@ -2789,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97">
         <v>0</v>
       </c>
@@ -2797,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98">
         <v>0</v>
       </c>
@@ -2805,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99">
         <v>0</v>
       </c>
@@ -2813,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100">
         <v>0</v>
       </c>
@@ -2821,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101">
         <v>0</v>
       </c>
@@ -2829,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C102">
         <v>0</v>
       </c>
@@ -2837,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C103">
         <v>0</v>
       </c>
@@ -2845,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C104">
         <v>0</v>
       </c>
@@ -2853,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C105">
         <v>0</v>
       </c>
@@ -2861,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C106">
         <v>0</v>
       </c>
@@ -2869,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C107">
         <v>0</v>
       </c>
@@ -2877,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C108">
         <v>0</v>
       </c>
@@ -2885,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C109">
         <v>0</v>
       </c>
@@ -2893,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C110">
         <v>0</v>
       </c>
@@ -2901,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C111">
         <v>0</v>
       </c>
@@ -2909,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C112">
         <v>0</v>
       </c>
@@ -2917,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C113">
         <v>0</v>
       </c>
@@ -2925,62 +3510,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C124">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C126">
         <v>119</v>
       </c>
@@ -3000,7 +3585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C127">
         <v>4</v>
       </c>
@@ -3020,7 +3605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C128">
         <f>(C127/C126)*100</f>
         <v>3.3613445378151261</v>
@@ -3034,12 +3619,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C132">
         <f>(119+87+108)</f>
         <v>314</v>
@@ -3048,7 +3633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C133">
         <f>(4+13+0)</f>
         <v>17</v>
@@ -3060,7 +3645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C134">
         <f>(C133/C132)*100</f>
         <v>5.4140127388535033</v>
@@ -3076,7 +3661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:14" x14ac:dyDescent="0.3">
       <c r="M135">
         <f>C133+L75</f>
         <v>71</v>
@@ -3085,7 +3670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:14" x14ac:dyDescent="0.3">
       <c r="M136">
         <f>(M135/M134)*100</f>
         <v>12.157534246575343</v>
